--- a/excelproject/CS3.xlsx
+++ b/excelproject/CS3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saisamarth/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saisamarth/Desktop/Projects/demo/excelproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094BA3CB-6BE9-7541-B457-C5F2B5BE733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D3F006-37FE-2849-A8B7-DA01054CD7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{76F61449-4501-684C-961C-9B2E5C619F7B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{76F61449-4501-684C-961C-9B2E5C619F7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>Asset Name</t>
   </si>
@@ -232,10 +232,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,7 +573,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,8 +930,8 @@
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
+      <c r="B18" s="1">
+        <v>399200</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
